--- a/natmiOut/OldD4/LR-pairs_lrc2p/L1cam-Cd9.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/L1cam-Cd9.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H2">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I2">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J2">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.1277032215214</v>
+        <v>37.89292233333333</v>
       </c>
       <c r="N2">
-        <v>33.1277032215214</v>
+        <v>113.678767</v>
       </c>
       <c r="O2">
-        <v>0.1563070135809476</v>
+        <v>0.1675903872431219</v>
       </c>
       <c r="P2">
-        <v>0.1563070135809476</v>
+        <v>0.1770445447021447</v>
       </c>
       <c r="Q2">
-        <v>261.5649360936669</v>
+        <v>320.8553389476098</v>
       </c>
       <c r="R2">
-        <v>261.5649360936669</v>
+        <v>2887.698050528488</v>
       </c>
       <c r="S2">
-        <v>0.04284113119185331</v>
+        <v>0.04579355939309237</v>
       </c>
       <c r="T2">
-        <v>0.04284113119185331</v>
+        <v>0.0553795866971496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H3">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I3">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J3">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.5585449535727</v>
+        <v>49.58946566666666</v>
       </c>
       <c r="N3">
-        <v>47.5585449535727</v>
+        <v>148.768397</v>
       </c>
       <c r="O3">
-        <v>0.2243963030651298</v>
+        <v>0.2193211091282201</v>
       </c>
       <c r="P3">
-        <v>0.2243963030651298</v>
+        <v>0.2316935150513456</v>
       </c>
       <c r="Q3">
-        <v>375.5058927057646</v>
+        <v>419.8948994945342</v>
       </c>
       <c r="R3">
-        <v>375.5058927057646</v>
+        <v>3779.054095450808</v>
       </c>
       <c r="S3">
-        <v>0.06150326359860724</v>
+        <v>0.05992882051434147</v>
       </c>
       <c r="T3">
-        <v>0.06150326359860724</v>
+        <v>0.07247380101736564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H4">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I4">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J4">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.5456505474433</v>
+        <v>58.78086233333334</v>
       </c>
       <c r="N4">
-        <v>57.5456505474433</v>
+        <v>176.342587</v>
       </c>
       <c r="O4">
-        <v>0.2715186356716762</v>
+        <v>0.2599722289632498</v>
       </c>
       <c r="P4">
-        <v>0.2715186356716762</v>
+        <v>0.2746378576309976</v>
       </c>
       <c r="Q4">
-        <v>454.3606391079964</v>
+        <v>497.7223277129966</v>
       </c>
       <c r="R4">
-        <v>454.3606391079964</v>
+        <v>4479.500949416969</v>
       </c>
       <c r="S4">
-        <v>0.07441870473597967</v>
+        <v>0.07103661435135075</v>
       </c>
       <c r="T4">
-        <v>0.07441870473597967</v>
+        <v>0.08590680425981527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H5">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I5">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J5">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.7039400839946</v>
+        <v>43.61929799999999</v>
       </c>
       <c r="N5">
-        <v>37.7039400839946</v>
+        <v>130.857894</v>
       </c>
       <c r="O5">
-        <v>0.1778991509117221</v>
+        <v>0.1929166343727092</v>
       </c>
       <c r="P5">
-        <v>0.1778991509117221</v>
+        <v>0.2037995034192402</v>
       </c>
       <c r="Q5">
-        <v>297.6973263918469</v>
+        <v>369.342974430224</v>
       </c>
       <c r="R5">
-        <v>297.6973263918469</v>
+        <v>3324.086769872016</v>
       </c>
       <c r="S5">
-        <v>0.04875917393931565</v>
+        <v>0.05271387875753425</v>
       </c>
       <c r="T5">
-        <v>0.04875917393931565</v>
+        <v>0.06374854581048907</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.89565561924442</v>
+        <v>8.467421333333334</v>
       </c>
       <c r="H6">
-        <v>7.89565561924442</v>
+        <v>25.402264</v>
       </c>
       <c r="I6">
-        <v>0.2740832302426847</v>
+        <v>0.2732469334691616</v>
       </c>
       <c r="J6">
-        <v>0.2740832302426847</v>
+        <v>0.312800300005396</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.0041276900153</v>
+        <v>36.221842</v>
       </c>
       <c r="N6">
-        <v>36.0041276900153</v>
+        <v>72.443684</v>
       </c>
       <c r="O6">
-        <v>0.1698788967705241</v>
+        <v>0.160199640292699</v>
       </c>
       <c r="P6">
-        <v>0.1698788967705241</v>
+        <v>0.112824579196272</v>
       </c>
       <c r="Q6">
-        <v>284.2761931116629</v>
+        <v>306.7055976834294</v>
       </c>
       <c r="R6">
-        <v>284.2761931116629</v>
+        <v>1840.233586100576</v>
       </c>
       <c r="S6">
-        <v>0.04656095677692883</v>
+        <v>0.04377406045284273</v>
       </c>
       <c r="T6">
-        <v>0.04656095677692883</v>
+        <v>0.03529156222057642</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H7">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I7">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J7">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.1277032215214</v>
+        <v>37.89292233333333</v>
       </c>
       <c r="N7">
-        <v>33.1277032215214</v>
+        <v>113.678767</v>
       </c>
       <c r="O7">
-        <v>0.1563070135809476</v>
+        <v>0.1675903872431219</v>
       </c>
       <c r="P7">
-        <v>0.1563070135809476</v>
+        <v>0.1770445447021447</v>
       </c>
       <c r="Q7">
-        <v>10.17691851549931</v>
+        <v>12.66939753435711</v>
       </c>
       <c r="R7">
-        <v>10.17691851549931</v>
+        <v>114.024577809214</v>
       </c>
       <c r="S7">
-        <v>0.001666854540071754</v>
+        <v>0.00180821927528846</v>
       </c>
       <c r="T7">
-        <v>0.001666854540071754</v>
+        <v>0.00218673624523713</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H8">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I8">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J8">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.5585449535727</v>
+        <v>49.58946566666666</v>
       </c>
       <c r="N8">
-        <v>47.5585449535727</v>
+        <v>148.768397</v>
       </c>
       <c r="O8">
-        <v>0.2243963030651298</v>
+        <v>0.2193211091282201</v>
       </c>
       <c r="P8">
-        <v>0.2243963030651298</v>
+        <v>0.2316935150513456</v>
       </c>
       <c r="Q8">
-        <v>14.6101114668822</v>
+        <v>16.58010560707489</v>
       </c>
       <c r="R8">
-        <v>14.6101114668822</v>
+        <v>149.220950463674</v>
       </c>
       <c r="S8">
-        <v>0.002392957219067619</v>
+        <v>0.002366368760924069</v>
       </c>
       <c r="T8">
-        <v>0.002392957219067619</v>
+        <v>0.002861723912485141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H9">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I9">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J9">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>57.5456505474433</v>
+        <v>58.78086233333334</v>
       </c>
       <c r="N9">
-        <v>57.5456505474433</v>
+        <v>176.342587</v>
       </c>
       <c r="O9">
-        <v>0.2715186356716762</v>
+        <v>0.2599722289632498</v>
       </c>
       <c r="P9">
-        <v>0.2715186356716762</v>
+        <v>0.2746378576309976</v>
       </c>
       <c r="Q9">
-        <v>17.67817686081749</v>
+        <v>19.65322457218378</v>
       </c>
       <c r="R9">
-        <v>17.67817686081749</v>
+        <v>176.879021149654</v>
       </c>
       <c r="S9">
-        <v>0.002895468733071538</v>
+        <v>0.002804974695649472</v>
       </c>
       <c r="T9">
-        <v>0.002895468733071538</v>
+        <v>0.003392143816723329</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H10">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I10">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J10">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>37.7039400839946</v>
+        <v>43.61929799999999</v>
       </c>
       <c r="N10">
-        <v>37.7039400839946</v>
+        <v>130.857894</v>
       </c>
       <c r="O10">
-        <v>0.1778991509117221</v>
+        <v>0.1929166343727092</v>
       </c>
       <c r="P10">
-        <v>0.1778991509117221</v>
+        <v>0.2037995034192402</v>
       </c>
       <c r="Q10">
-        <v>11.58275064776613</v>
+        <v>14.583995968172</v>
       </c>
       <c r="R10">
-        <v>11.58275064776613</v>
+        <v>131.255963713548</v>
       </c>
       <c r="S10">
-        <v>0.001897112615606001</v>
+        <v>0.002081477240639443</v>
       </c>
       <c r="T10">
-        <v>0.001897112615606001</v>
+        <v>0.002517195667553277</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.307202658978419</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H11">
-        <v>0.307202658978419</v>
+        <v>1.003042</v>
       </c>
       <c r="I11">
-        <v>0.01066397791042518</v>
+        <v>0.01078951666043526</v>
       </c>
       <c r="J11">
-        <v>0.01066397791042518</v>
+        <v>0.01235133366529898</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.0041276900153</v>
+        <v>36.221842</v>
       </c>
       <c r="N11">
-        <v>36.0041276900153</v>
+        <v>72.443684</v>
       </c>
       <c r="O11">
-        <v>0.1698788967705241</v>
+        <v>0.160199640292699</v>
       </c>
       <c r="P11">
-        <v>0.1698788967705241</v>
+        <v>0.112824579196272</v>
       </c>
       <c r="Q11">
-        <v>11.06056376057122</v>
+        <v>12.11067628112133</v>
       </c>
       <c r="R11">
-        <v>11.06056376057122</v>
+        <v>72.664057686728</v>
       </c>
       <c r="S11">
-        <v>0.001811584802608269</v>
+        <v>0.001728476687933811</v>
       </c>
       <c r="T11">
-        <v>0.001811584802608269</v>
+        <v>0.001393534023300105</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H12">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I12">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J12">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.1277032215214</v>
+        <v>37.89292233333333</v>
       </c>
       <c r="N12">
-        <v>33.1277032215214</v>
+        <v>113.678767</v>
       </c>
       <c r="O12">
-        <v>0.1563070135809476</v>
+        <v>0.1675903872431219</v>
       </c>
       <c r="P12">
-        <v>0.1563070135809476</v>
+        <v>0.1770445447021447</v>
       </c>
       <c r="Q12">
-        <v>123.0677246917191</v>
+        <v>156.8779236644887</v>
       </c>
       <c r="R12">
-        <v>123.0677246917191</v>
+        <v>1411.901312980399</v>
       </c>
       <c r="S12">
-        <v>0.02015698517446841</v>
+        <v>0.02239014796623908</v>
       </c>
       <c r="T12">
-        <v>0.02015698517446841</v>
+        <v>0.02707710771758405</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H13">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I13">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J13">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>47.5585449535727</v>
+        <v>49.58946566666666</v>
       </c>
       <c r="N13">
-        <v>47.5585449535727</v>
+        <v>148.768397</v>
       </c>
       <c r="O13">
-        <v>0.2243963030651298</v>
+        <v>0.2193211091282201</v>
       </c>
       <c r="P13">
-        <v>0.2243963030651298</v>
+        <v>0.2316935150513456</v>
       </c>
       <c r="Q13">
-        <v>176.6775643317971</v>
+        <v>205.3019912527232</v>
       </c>
       <c r="R13">
-        <v>176.6775643317971</v>
+        <v>1847.717921274509</v>
       </c>
       <c r="S13">
-        <v>0.02893761994721313</v>
+        <v>0.02930139470575185</v>
       </c>
       <c r="T13">
-        <v>0.02893761994721313</v>
+        <v>0.03543509502123039</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H14">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I14">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J14">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>57.5456505474433</v>
+        <v>58.78086233333334</v>
       </c>
       <c r="N14">
-        <v>57.5456505474433</v>
+        <v>176.342587</v>
       </c>
       <c r="O14">
-        <v>0.2715186356716762</v>
+        <v>0.2599722289632498</v>
       </c>
       <c r="P14">
-        <v>0.2715186356716762</v>
+        <v>0.2746378576309976</v>
       </c>
       <c r="Q14">
-        <v>213.7791512868238</v>
+        <v>243.3546706412154</v>
       </c>
       <c r="R14">
-        <v>213.7791512868238</v>
+        <v>2190.192035770939</v>
       </c>
       <c r="S14">
-        <v>0.03501440523007328</v>
+        <v>0.03473240183612643</v>
       </c>
       <c r="T14">
-        <v>0.03501440523007328</v>
+        <v>0.04200298216989316</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H15">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I15">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J15">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.7039400839946</v>
+        <v>43.61929799999999</v>
       </c>
       <c r="N15">
-        <v>37.7039400839946</v>
+        <v>130.857894</v>
       </c>
       <c r="O15">
-        <v>0.1778991509117221</v>
+        <v>0.1929166343727092</v>
       </c>
       <c r="P15">
-        <v>0.1778991509117221</v>
+        <v>0.2037995034192402</v>
       </c>
       <c r="Q15">
-        <v>140.0682107969276</v>
+        <v>180.585304077302</v>
       </c>
       <c r="R15">
-        <v>140.0682107969276</v>
+        <v>1625.267736695718</v>
       </c>
       <c r="S15">
-        <v>0.02294145646651386</v>
+        <v>0.02577374549822861</v>
       </c>
       <c r="T15">
-        <v>0.02294145646651386</v>
+        <v>0.03116899826626547</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.71494890149125</v>
+        <v>4.140032333333333</v>
       </c>
       <c r="H16">
-        <v>3.71494890149125</v>
+        <v>12.420097</v>
       </c>
       <c r="I16">
-        <v>0.1289576501570711</v>
+        <v>0.1336004309946363</v>
       </c>
       <c r="J16">
-        <v>0.1289576501570711</v>
+        <v>0.1529395201819853</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.0041276900153</v>
+        <v>36.221842</v>
       </c>
       <c r="N16">
-        <v>36.0041276900153</v>
+        <v>72.443684</v>
       </c>
       <c r="O16">
-        <v>0.1698788967705241</v>
+        <v>0.160199640292699</v>
       </c>
       <c r="P16">
-        <v>0.1698788967705241</v>
+        <v>0.112824579196272</v>
       </c>
       <c r="Q16">
-        <v>133.753494611173</v>
+        <v>149.9595970528913</v>
       </c>
       <c r="R16">
-        <v>133.753494611173</v>
+        <v>899.7575823173481</v>
       </c>
       <c r="S16">
-        <v>0.02190718333880245</v>
+        <v>0.02140274098829028</v>
       </c>
       <c r="T16">
-        <v>0.02190718333880245</v>
+        <v>0.01725533700701223</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="H17">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="I17">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J17">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.1277032215214</v>
+        <v>37.89292233333333</v>
       </c>
       <c r="N17">
-        <v>33.1277032215214</v>
+        <v>113.678767</v>
       </c>
       <c r="O17">
-        <v>0.1563070135809476</v>
+        <v>0.1675903872431219</v>
       </c>
       <c r="P17">
-        <v>0.1563070135809476</v>
+        <v>0.1770445447021447</v>
       </c>
       <c r="Q17">
-        <v>199.610359758318</v>
+        <v>238.3871405823303</v>
       </c>
       <c r="R17">
-        <v>199.610359758318</v>
+        <v>2145.484265240973</v>
       </c>
       <c r="S17">
-        <v>0.03269373080876871</v>
+        <v>0.03402341914151192</v>
       </c>
       <c r="T17">
-        <v>0.03269373080876871</v>
+        <v>0.04114558717541047</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="H18">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="I18">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J18">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>47.5585449535727</v>
+        <v>49.58946566666666</v>
       </c>
       <c r="N18">
-        <v>47.5585449535727</v>
+        <v>148.768397</v>
       </c>
       <c r="O18">
-        <v>0.2243963030651298</v>
+        <v>0.2193211091282201</v>
       </c>
       <c r="P18">
-        <v>0.2243963030651298</v>
+        <v>0.2316935150513456</v>
       </c>
       <c r="Q18">
-        <v>286.5631282762019</v>
+        <v>311.9709485399936</v>
       </c>
       <c r="R18">
-        <v>286.5631282762019</v>
+        <v>2807.738536859943</v>
       </c>
       <c r="S18">
-        <v>0.04693552873169646</v>
+        <v>0.04452554913919716</v>
       </c>
       <c r="T18">
-        <v>0.04693552873169646</v>
+        <v>0.05384614215343814</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="H19">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="I19">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J19">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>57.5456505474433</v>
+        <v>58.78086233333334</v>
       </c>
       <c r="N19">
-        <v>57.5456505474433</v>
+        <v>176.342587</v>
       </c>
       <c r="O19">
-        <v>0.2715186356716762</v>
+        <v>0.2599722289632498</v>
       </c>
       <c r="P19">
-        <v>0.2715186356716762</v>
+        <v>0.2746378576309976</v>
       </c>
       <c r="Q19">
-        <v>346.7402473238552</v>
+        <v>369.7946959419504</v>
       </c>
       <c r="R19">
-        <v>346.7402473238552</v>
+        <v>3328.152263477553</v>
       </c>
       <c r="S19">
-        <v>0.05679180339285778</v>
+        <v>0.05277834997981225</v>
       </c>
       <c r="T19">
-        <v>0.05679180339285778</v>
+        <v>0.06382651288033328</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="H20">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="I20">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J20">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>37.7039400839946</v>
+        <v>43.61929799999999</v>
       </c>
       <c r="N20">
-        <v>37.7039400839946</v>
+        <v>130.857894</v>
       </c>
       <c r="O20">
-        <v>0.1778991509117221</v>
+        <v>0.1929166343727092</v>
       </c>
       <c r="P20">
-        <v>0.1778991509117221</v>
+        <v>0.2037995034192402</v>
       </c>
       <c r="Q20">
-        <v>227.1843898789488</v>
+        <v>274.412187926754</v>
       </c>
       <c r="R20">
-        <v>227.1843898789488</v>
+        <v>2469.709691340785</v>
       </c>
       <c r="S20">
-        <v>0.03721001903733707</v>
+        <v>0.03916503576729978</v>
       </c>
       <c r="T20">
-        <v>0.03721001903733707</v>
+        <v>0.04736350531641165</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.02548140520171</v>
+        <v>6.291073</v>
       </c>
       <c r="H21">
-        <v>6.02548140520171</v>
+        <v>18.873219</v>
       </c>
       <c r="I21">
-        <v>0.2091635561307517</v>
+        <v>0.2030153381778063</v>
       </c>
       <c r="J21">
-        <v>0.2091635561307517</v>
+        <v>0.2324024569332694</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>36.0041276900153</v>
+        <v>36.221842</v>
       </c>
       <c r="N21">
-        <v>36.0041276900153</v>
+        <v>72.443684</v>
       </c>
       <c r="O21">
-        <v>0.1698788967705241</v>
+        <v>0.160199640292699</v>
       </c>
       <c r="P21">
-        <v>0.1698788967705241</v>
+        <v>0.112824579196272</v>
       </c>
       <c r="Q21">
-        <v>216.9422019066952</v>
+        <v>227.874252216466</v>
       </c>
       <c r="R21">
-        <v>216.9422019066952</v>
+        <v>1367.245513298796</v>
       </c>
       <c r="S21">
-        <v>0.03553247416009171</v>
+        <v>0.03252298414998521</v>
       </c>
       <c r="T21">
-        <v>0.03553247416009171</v>
+        <v>0.02622070940767583</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="H22">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="I22">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="J22">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.1277032215214</v>
+        <v>37.89292233333333</v>
       </c>
       <c r="N22">
-        <v>33.1277032215214</v>
+        <v>113.678767</v>
       </c>
       <c r="O22">
-        <v>0.1563070135809476</v>
+        <v>0.1675903872431219</v>
       </c>
       <c r="P22">
-        <v>0.1563070135809476</v>
+        <v>0.1770445447021447</v>
       </c>
       <c r="Q22">
-        <v>359.9067297489045</v>
+        <v>445.4423667616546</v>
       </c>
       <c r="R22">
-        <v>359.9067297489045</v>
+        <v>2672.654200569928</v>
       </c>
       <c r="S22">
-        <v>0.05894831186578542</v>
+        <v>0.06357504146699011</v>
       </c>
       <c r="T22">
-        <v>0.05894831186578542</v>
+        <v>0.05125552686676346</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="H23">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="I23">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="J23">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>47.5585449535727</v>
+        <v>49.58946566666666</v>
       </c>
       <c r="N23">
-        <v>47.5585449535727</v>
+        <v>148.768397</v>
       </c>
       <c r="O23">
-        <v>0.2243963030651298</v>
+        <v>0.2193211091282201</v>
       </c>
       <c r="P23">
-        <v>0.2243963030651298</v>
+        <v>0.2316935150513456</v>
       </c>
       <c r="Q23">
-        <v>516.6866012835081</v>
+        <v>582.9386490356412</v>
       </c>
       <c r="R23">
-        <v>516.6866012835081</v>
+        <v>3497.631894213847</v>
       </c>
       <c r="S23">
-        <v>0.08462693356854539</v>
+        <v>0.08319897600800551</v>
       </c>
       <c r="T23">
-        <v>0.08462693356854539</v>
+        <v>0.06707675294682632</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="H24">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="I24">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="J24">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.5456505474433</v>
+        <v>58.78086233333334</v>
       </c>
       <c r="N24">
-        <v>57.5456505474433</v>
+        <v>176.342587</v>
       </c>
       <c r="O24">
-        <v>0.2715186356716762</v>
+        <v>0.2599722289632498</v>
       </c>
       <c r="P24">
-        <v>0.2715186356716762</v>
+        <v>0.2746378576309976</v>
       </c>
       <c r="Q24">
-        <v>625.1887358840089</v>
+        <v>690.9862007401347</v>
       </c>
       <c r="R24">
-        <v>625.1887358840089</v>
+        <v>4145.917204440808</v>
       </c>
       <c r="S24">
-        <v>0.102398253579694</v>
+        <v>0.09861988810031089</v>
       </c>
       <c r="T24">
-        <v>0.102398253579694</v>
+        <v>0.07950941450423255</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="H25">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="I25">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="J25">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>37.7039400839946</v>
+        <v>43.61929799999999</v>
       </c>
       <c r="N25">
-        <v>37.7039400839946</v>
+        <v>130.857894</v>
       </c>
       <c r="O25">
-        <v>0.1778991509117221</v>
+        <v>0.1929166343727092</v>
       </c>
       <c r="P25">
-        <v>0.1778991509117221</v>
+        <v>0.2037995034192402</v>
       </c>
       <c r="Q25">
-        <v>409.6239839972803</v>
+        <v>512.7575848250159</v>
       </c>
       <c r="R25">
-        <v>409.6239839972803</v>
+        <v>3076.545508950096</v>
       </c>
       <c r="S25">
-        <v>0.06709138885294955</v>
+        <v>0.07318249710900715</v>
       </c>
       <c r="T25">
-        <v>0.06709138885294955</v>
+        <v>0.05900125835852076</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.8642222294207</v>
+        <v>11.755292</v>
       </c>
       <c r="H26">
-        <v>10.8642222294207</v>
+        <v>23.510584</v>
       </c>
       <c r="I26">
-        <v>0.3771315855590672</v>
+        <v>0.3793477806979606</v>
       </c>
       <c r="J26">
-        <v>0.3771315855590672</v>
+        <v>0.2895063892140504</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>36.0041276900153</v>
+        <v>36.221842</v>
       </c>
       <c r="N26">
-        <v>36.0041276900153</v>
+        <v>72.443684</v>
       </c>
       <c r="O26">
-        <v>0.1698788967705241</v>
+        <v>0.160199640292699</v>
       </c>
       <c r="P26">
-        <v>0.1698788967705241</v>
+        <v>0.112824579196272</v>
       </c>
       <c r="Q26">
-        <v>391.1568444007656</v>
+        <v>425.798329487864</v>
       </c>
       <c r="R26">
-        <v>391.1568444007656</v>
+        <v>1703.193317951456</v>
       </c>
       <c r="S26">
-        <v>0.06406669769209286</v>
+        <v>0.06077137801364695</v>
       </c>
       <c r="T26">
-        <v>0.06406669769209286</v>
+        <v>0.03266343653770736</v>
       </c>
     </row>
   </sheetData>
